--- a/Idea.xlsx
+++ b/Idea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinh\Documents\Projects\money-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA9A23-D6D9-4E56-9965-F9D6C1807654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D4ACA-3B9C-4079-BB61-D9FE278D7089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90A2BAAB-97BB-4792-9853-EE83215EB74D}"/>
   </bookViews>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20B835D-2B2D-45DE-B62A-565D9EDAD061}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Idea.xlsx
+++ b/Idea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinh\Documents\Projects\money-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltti\Documents\GitHub\money-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D4ACA-3B9C-4079-BB61-D9FE278D7089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A43013-B3FB-44DC-9E3B-E8396219B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90A2BAAB-97BB-4792-9853-EE83215EB74D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{90A2BAAB-97BB-4792-9853-EE83215EB74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20B835D-2B2D-45DE-B62A-565D9EDAD061}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
